--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17.458761714519653</v>
+        <v>17.458761665003294</v>
       </c>
       <c r="C2">
-        <v>27.693165778537775</v>
+        <v>27.693165769611142</v>
       </c>
       <c r="D2">
-        <v>8.1399366989616624</v>
+        <v>8.139936650987039</v>
       </c>
       <c r="E2">
-        <v>32.519252824434176</v>
+        <v>32.519252784974213</v>
       </c>
       <c r="F2">
-        <v>-16.442411764402408</v>
+        <v>-16.442411771969518</v>
       </c>
       <c r="G2">
-        <v>23.649659969441103</v>
+        <v>23.649659910226575</v>
       </c>
       <c r="H2">
-        <v>25.578543111088607</v>
+        <v>25.578543079218321</v>
       </c>
       <c r="I2">
-        <v>21.278687530704758</v>
+        <v>21.278687506050744</v>
       </c>
       <c r="J2">
-        <v>28.540293457194537</v>
+        <v>28.540293398228869</v>
       </c>
       <c r="K2">
-        <v>40.571245106990659</v>
+        <v>40.571245071727049</v>
       </c>
       <c r="L2">
-        <v>31.912336535427983</v>
+        <v>31.912336475444818</v>
       </c>
       <c r="M2">
-        <v>22.104346414545944</v>
+        <v>22.104346373466058</v>
       </c>
       <c r="N2">
-        <v>34.682440282484379</v>
+        <v>34.682440210355935</v>
       </c>
       <c r="O2">
-        <v>13.093884658497643</v>
+        <v>13.093884619802509</v>
       </c>
       <c r="P2">
-        <v>19.760807767189647</v>
+        <v>19.760807724381948</v>
       </c>
       <c r="Q2">
-        <v>38.228762343533845</v>
+        <v>38.228762301400479</v>
       </c>
       <c r="R2">
-        <v>18.945134646784084</v>
+        <v>18.94513462380695</v>
       </c>
       <c r="S2">
-        <v>20.290459886988685</v>
+        <v>20.290459836996831</v>
       </c>
       <c r="T2">
-        <v>35.955721866009071</v>
+        <v>35.955721823634804</v>
       </c>
       <c r="U2">
-        <v>31.525353630337548</v>
+        <v>31.52535360466598</v>
       </c>
       <c r="V2">
-        <v>32.619890735588683</v>
+        <v>32.619890688763633</v>
       </c>
       <c r="W2">
-        <v>10.641499037457493</v>
+        <v>10.641498988051012</v>
       </c>
       <c r="X2">
-        <v>34.814417212142189</v>
+        <v>34.814417188842867</v>
       </c>
       <c r="Y2">
-        <v>30.18703997105618</v>
+        <v>30.187039936918552</v>
       </c>
       <c r="Z2">
-        <v>25.476717036389999</v>
+        <v>25.476717016330696</v>
       </c>
       <c r="AA2">
-        <v>35.074541163139543</v>
+        <v>35.074541050074515</v>
       </c>
       <c r="AB2">
-        <v>33.123040911622638</v>
+        <v>33.123040880385247</v>
       </c>
       <c r="AC2">
-        <v>22.075698289735413</v>
+        <v>22.075698270501647</v>
       </c>
       <c r="AD2">
-        <v>32.575836703732421</v>
+        <v>32.575836664434178</v>
       </c>
       <c r="AE2">
-        <v>37.459886767289674</v>
+        <v>37.459886740987088</v>
       </c>
       <c r="AF2">
-        <v>29.785969015358091</v>
+        <v>29.785968981620385</v>
       </c>
       <c r="AG2">
-        <v>26.933021496780725</v>
+        <v>26.933021466054356</v>
       </c>
       <c r="AH2">
-        <v>25.293470294395888</v>
+        <v>25.29347025873642</v>
       </c>
       <c r="AI2">
-        <v>6.1050047678454007</v>
+        <v>6.1050047251951582</v>
       </c>
       <c r="AJ2">
-        <v>23.096396541673755</v>
+        <v>23.096396496662692</v>
       </c>
       <c r="AK2">
-        <v>30.902565295703312</v>
+        <v>30.902565234124836</v>
       </c>
       <c r="AL2">
-        <v>43.365494391588413</v>
+        <v>43.365494340013015</v>
       </c>
       <c r="AM2">
-        <v>28.031409614735395</v>
+        <v>28.031409555441797</v>
       </c>
       <c r="AN2">
-        <v>26.223098761522408</v>
+        <v>26.22309871711667</v>
       </c>
       <c r="AO2">
-        <v>37.36449085586267</v>
+        <v>37.36449080489254</v>
       </c>
       <c r="AP2">
-        <v>26.859433046339461</v>
+        <v>26.859433010349562</v>
       </c>
       <c r="AQ2">
-        <v>27.891313904217441</v>
+        <v>27.891313829365004</v>
       </c>
       <c r="AR2">
-        <v>30.966430978953156</v>
+        <v>30.966430966001951</v>
       </c>
       <c r="AS2">
-        <v>38.805652701145675</v>
+        <v>38.805652640320034</v>
       </c>
       <c r="AT2">
-        <v>31.471544483900061</v>
+        <v>31.471544448419024</v>
       </c>
       <c r="AU2">
-        <v>27.040983909800275</v>
+        <v>27.040983883006902</v>
       </c>
       <c r="AV2">
-        <v>22.982010107014958</v>
+        <v>22.982010030344782</v>
       </c>
       <c r="AW2">
-        <v>30.014459067945694</v>
+        <v>30.014459012071512</v>
       </c>
       <c r="AX2">
-        <v>37.105288453072092</v>
+        <v>37.105288386290255</v>
       </c>
       <c r="AY2">
-        <v>31.035162146564716</v>
+        <v>31.035162104043849</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.255146461776803</v>
+        <v>20.255146423108954</v>
       </c>
       <c r="C3">
-        <v>27.983983219199388</v>
+        <v>27.983983200077262</v>
       </c>
       <c r="D3">
-        <v>33.064274880161321</v>
+        <v>33.064274852523482</v>
       </c>
       <c r="E3">
-        <v>41.262463241914304</v>
+        <v>41.262463222658738</v>
       </c>
       <c r="F3">
-        <v>5.88322956929062</v>
+        <v>5.8832295413673705</v>
       </c>
       <c r="G3">
-        <v>27.964416463178935</v>
+        <v>27.964416447656191</v>
       </c>
       <c r="H3">
-        <v>26.385462254276035</v>
+        <v>26.385462202827114</v>
       </c>
       <c r="I3">
-        <v>26.396950522710654</v>
+        <v>26.396950494753582</v>
       </c>
       <c r="J3">
-        <v>32.415806823833123</v>
+        <v>32.415806792341357</v>
       </c>
       <c r="K3">
-        <v>0.73605646682881343</v>
+        <v>0.73605643345217686</v>
       </c>
       <c r="L3">
-        <v>35.252634891028038</v>
+        <v>35.252634856361965</v>
       </c>
       <c r="M3">
-        <v>27.637970810649108</v>
+        <v>27.637871662469706</v>
       </c>
       <c r="N3">
-        <v>29.01894301863922</v>
+        <v>29.018942967991904</v>
       </c>
       <c r="O3">
-        <v>11.493826371221871</v>
+        <v>11.493826343276282</v>
       </c>
       <c r="P3">
-        <v>63.425197654869123</v>
+        <v>63.425197615901197</v>
       </c>
       <c r="Q3">
-        <v>24.248579246116719</v>
+        <v>24.248579211527385</v>
       </c>
       <c r="R3">
-        <v>20.104658896301089</v>
+        <v>20.104658861768826</v>
       </c>
       <c r="S3">
-        <v>15.703192946050308</v>
+        <v>15.703192923946744</v>
       </c>
       <c r="T3">
-        <v>18.776917608281906</v>
+        <v>18.77691757560234</v>
       </c>
       <c r="U3">
-        <v>28.661802083695022</v>
+        <v>28.661802067010797</v>
       </c>
       <c r="V3">
-        <v>33.821516423381581</v>
+        <v>33.821516404021907</v>
       </c>
       <c r="W3">
-        <v>21.357045666254749</v>
+        <v>21.357045589537847</v>
       </c>
       <c r="X3">
-        <v>11.820213512464761</v>
+        <v>11.820213462129686</v>
       </c>
       <c r="Y3">
-        <v>13.870228674223824</v>
+        <v>13.870228645452784</v>
       </c>
       <c r="Z3">
-        <v>26.002798270651567</v>
+        <v>26.002798246697182</v>
       </c>
       <c r="AA3">
-        <v>38.748157594335794</v>
+        <v>38.748157546225571</v>
       </c>
       <c r="AB3">
-        <v>29.173200658730991</v>
+        <v>29.17320061115845</v>
       </c>
       <c r="AC3">
-        <v>36.951414730391519</v>
+        <v>36.951414673847438</v>
       </c>
       <c r="AD3">
-        <v>43.76156555858725</v>
+        <v>43.76156549105329</v>
       </c>
       <c r="AE3">
-        <v>33.428394620013222</v>
+        <v>33.428394621569936</v>
       </c>
       <c r="AF3">
-        <v>33.425729881751977</v>
+        <v>33.425729830219154</v>
       </c>
       <c r="AG3">
-        <v>26.091102635297716</v>
+        <v>26.091102574511297</v>
       </c>
       <c r="AH3">
-        <v>31.829101130821584</v>
+        <v>31.829101101944445</v>
       </c>
       <c r="AI3">
-        <v>35.471412408529432</v>
+        <v>35.471412353404276</v>
       </c>
       <c r="AJ3">
-        <v>41.253909917024544</v>
+        <v>41.253909854921744</v>
       </c>
       <c r="AK3">
-        <v>35.493050071829202</v>
+        <v>35.493050050941861</v>
       </c>
       <c r="AL3">
-        <v>38.075309111046067</v>
+        <v>38.075309066545742</v>
       </c>
       <c r="AM3">
-        <v>26.974408809264105</v>
+        <v>26.974408727895366</v>
       </c>
       <c r="AN3">
-        <v>17.004417226587265</v>
+        <v>17.00441717643784</v>
       </c>
       <c r="AO3">
-        <v>17.636783436686557</v>
+        <v>17.63678335580363</v>
       </c>
       <c r="AP3">
-        <v>36.796438021778499</v>
+        <v>36.796437967090355</v>
       </c>
       <c r="AQ3">
-        <v>30.568387811444495</v>
+        <v>30.568387766758065</v>
       </c>
       <c r="AR3">
-        <v>37.325421518359576</v>
+        <v>37.325421483235573</v>
       </c>
       <c r="AS3">
-        <v>29.323249384656606</v>
+        <v>29.323249344483315</v>
       </c>
       <c r="AT3">
-        <v>25.292632872792211</v>
+        <v>25.292632812093899</v>
       </c>
       <c r="AU3">
-        <v>36.753490222175174</v>
+        <v>36.753490154852329</v>
       </c>
       <c r="AV3">
-        <v>33.037009462438789</v>
+        <v>33.037009419230685</v>
       </c>
       <c r="AW3">
-        <v>35.109320765403822</v>
+        <v>35.1093206920699</v>
       </c>
       <c r="AX3">
-        <v>63.860002389562851</v>
+        <v>63.860002341435802</v>
       </c>
       <c r="AY3">
-        <v>45.589355609722475</v>
+        <v>45.589355579273956</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_2.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>17.458761665003294</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>27.693165769611142</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>8.139936650987039</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>32.519252784974213</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-16.442411771969518</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>23.649659910226575</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>25.578543079218321</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>21.278687506050744</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>28.540293398228869</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>40.571245071727049</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>31.912336475444818</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>22.104346373466058</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>34.682440210355935</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>13.093884619802509</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>19.760807724381948</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>38.228762301400479</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>18.94513462380695</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>20.290459836996831</v>
+        <v>20.290426506996823</v>
       </c>
       <c r="T2">
-        <v>35.955721823634804</v>
+        <v>35.955688493634739</v>
       </c>
       <c r="U2">
-        <v>31.52535360466598</v>
+        <v>31.525320274665972</v>
       </c>
       <c r="V2">
-        <v>32.619890688763633</v>
+        <v>32.619857358763682</v>
       </c>
       <c r="W2">
-        <v>10.641498988051012</v>
+        <v>10.641465658051061</v>
       </c>
       <c r="X2">
-        <v>34.814417188842867</v>
+        <v>34.814450518842875</v>
       </c>
       <c r="Y2">
-        <v>30.187039936918552</v>
+        <v>30.18707326691856</v>
       </c>
       <c r="Z2">
-        <v>25.476717016330696</v>
+        <v>25.476750346330704</v>
       </c>
       <c r="AA2">
-        <v>35.074541050074515</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>33.123040880385247</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>22.075698270501647</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>32.575836664434178</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>37.459886740987088</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>29.785968981620385</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>26.933021466054356</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>25.29347025873642</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>6.1050047251951582</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>23.096396496662692</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>30.902565234124836</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>43.365494340013015</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>28.031409555441797</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>26.22309871711667</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>37.36449080489254</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>26.859433010349562</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>27.891313829365004</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>30.966430966001951</v>
+        <v>30.966397636001943</v>
       </c>
       <c r="AS2">
-        <v>38.805652640320034</v>
+        <v>38.805619310320026</v>
       </c>
       <c r="AT2">
         <v>31.471544448419024</v>
       </c>
       <c r="AU2">
-        <v>27.040983883006902</v>
+        <v>27.040950553006894</v>
       </c>
       <c r="AV2">
         <v>22.982010030344782</v>
       </c>
       <c r="AW2">
-        <v>30.014459012071512</v>
+        <v>30.01449234207152</v>
       </c>
       <c r="AX2">
-        <v>37.105288386290255</v>
+        <v>37.105321716290234</v>
       </c>
       <c r="AY2">
         <v>31.035162104043849</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>20.255146423108954</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>27.983983200077262</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>33.064274852523482</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>41.262463222658738</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>5.8832295413673705</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>27.964416447656191</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>26.385462202827114</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>26.396950494753582</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>32.415806792341357</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.73605643345217686</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>35.252634856361965</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>27.637871662469706</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>29.018942967991904</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>11.493826343276282</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>63.425197615901197</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>24.248579211527385</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>20.104658861768826</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>15.703192923946744</v>
       </c>
       <c r="T3">
-        <v>18.77691757560234</v>
+        <v>18.776884245602275</v>
       </c>
       <c r="U3">
-        <v>28.661802067010797</v>
+        <v>28.661768737010789</v>
       </c>
       <c r="V3">
-        <v>33.821516404021907</v>
+        <v>33.821483074021899</v>
       </c>
       <c r="W3">
-        <v>21.357045589537847</v>
+        <v>21.357012259537839</v>
       </c>
       <c r="X3">
-        <v>11.820213462129686</v>
+        <v>11.820180132129678</v>
       </c>
       <c r="Y3">
-        <v>13.870228645452784</v>
+        <v>13.870261975452763</v>
       </c>
       <c r="Z3">
-        <v>26.002798246697182</v>
+        <v>26.00283157669719</v>
       </c>
       <c r="AA3">
-        <v>38.748157546225571</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>29.17320061115845</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>36.951414673847438</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>43.76156549105329</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>33.428394621569936</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>33.425729830219154</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>26.091102574511297</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>31.829101101944445</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>35.471412353404276</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>41.253909854921744</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>35.493050050941861</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>38.075309066545742</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>26.974408727895366</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>17.00441717643784</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>17.63678335580363</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>36.796437967090355</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>30.568387766758065</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>37.325421483235573</v>
+        <v>37.325388153235622</v>
       </c>
       <c r="AS3">
         <v>29.323249344483315</v>
       </c>
       <c r="AT3">
-        <v>25.292632812093899</v>
+        <v>25.292599482093891</v>
       </c>
       <c r="AU3">
-        <v>36.753490154852329</v>
+        <v>36.753456824852321</v>
       </c>
       <c r="AV3">
-        <v>33.037009419230685</v>
+        <v>33.03704274923075</v>
       </c>
       <c r="AW3">
-        <v>35.1093206920699</v>
+        <v>35.109287362069892</v>
       </c>
       <c r="AX3">
-        <v>63.860002341435802</v>
+        <v>63.860035671435782</v>
       </c>
       <c r="AY3">
         <v>45.589355579273956</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_2.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17.458728384519645</v>
+        <v>13.093917949802517</v>
       </c>
       <c r="C2">
-        <v>29.229865778537771</v>
+        <v>18.945101293806943</v>
       </c>
       <c r="D2">
-        <v>8.1399366989616624</v>
+        <v>26.223132047116678</v>
       </c>
       <c r="E2">
-        <v>39.832619494434198</v>
+        <v>27.891313829365004</v>
       </c>
       <c r="F2">
         <v>-16.442445094402416</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.255146461776803</v>
+        <v>11.493826343276282</v>
       </c>
       <c r="C3">
-        <v>34.623949889199366</v>
+        <v>20.104625531768875</v>
       </c>
       <c r="D3">
-        <v>33.064241550161341</v>
+        <v>17.00445050643782</v>
       </c>
       <c r="E3">
-        <v>41.262429911914296</v>
+        <v>30.781500941369586</v>
       </c>
       <c r="F3">
         <v>5.883262899290628</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_2.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>17.458728384519645</v>
+        <v>-1.4575931196440592</v>
       </c>
       <c r="C2">
-        <v>29.229865778537771</v>
+        <v>13.093917949802517</v>
       </c>
       <c r="D2">
-        <v>8.1399366989616624</v>
+        <v>18.728076225441782</v>
       </c>
       <c r="E2">
-        <v>39.832619494434198</v>
+        <v>26.223132047116678</v>
       </c>
       <c r="F2">
         <v>-16.442445094402416</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20.255146461776803</v>
+        <v>-21.48109036200816</v>
       </c>
       <c r="C3">
-        <v>34.623949889199366</v>
+        <v>11.493826343276282</v>
       </c>
       <c r="D3">
-        <v>33.064241550161341</v>
+        <v>40.481075397895438</v>
       </c>
       <c r="E3">
-        <v>41.262429911914296</v>
+        <v>17.00445050643782</v>
       </c>
       <c r="F3">
         <v>5.883262899290628</v>

--- a/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_2.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_msc_GM_submax_2.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>17.458728335003286</v>
+      </c>
+      <c r="C2">
+        <v>29.229865769611138</v>
+      </c>
+      <c r="D2">
+        <v>8.139936650987039</v>
+      </c>
+      <c r="E2">
+        <v>39.832619454974235</v>
+      </c>
+      <c r="F2">
+        <v>-16.442445101969525</v>
+      </c>
+      <c r="G2">
+        <v>23.649626580226595</v>
+      </c>
+      <c r="H2">
+        <v>25.578576409218329</v>
+      </c>
+      <c r="I2">
+        <v>21.278654176050736</v>
+      </c>
+      <c r="J2">
+        <v>28.54032672822882</v>
+      </c>
+      <c r="K2">
+        <v>40.571278401727113</v>
+      </c>
+      <c r="L2">
+        <v>31.912303145444753</v>
+      </c>
+      <c r="M2">
+        <v>22.104379703466009</v>
+      </c>
+      <c r="N2">
         <v>-1.4575931196440592</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>13.093917949802517</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>19.760807724381948</v>
+      </c>
+      <c r="Q2">
+        <v>69.885395631400456</v>
+      </c>
+      <c r="R2">
+        <v>18.945101293806943</v>
+      </c>
+      <c r="S2">
+        <v>20.290426506996823</v>
+      </c>
+      <c r="T2">
+        <v>35.955688493634739</v>
+      </c>
+      <c r="U2">
+        <v>31.525320274665972</v>
+      </c>
+      <c r="V2">
+        <v>32.619857358763682</v>
+      </c>
+      <c r="W2">
+        <v>10.641465658051061</v>
+      </c>
+      <c r="X2">
+        <v>34.814450518842875</v>
+      </c>
+      <c r="Y2">
+        <v>30.18707326691856</v>
+      </c>
+      <c r="Z2">
+        <v>25.476750346330704</v>
+      </c>
+      <c r="AA2">
+        <v>35.074574380074523</v>
+      </c>
+      <c r="AB2">
+        <v>4.0397075503852875</v>
+      </c>
+      <c r="AC2">
+        <v>22.075731600501626</v>
+      </c>
+      <c r="AD2">
+        <v>25.029169994434199</v>
+      </c>
+      <c r="AE2">
+        <v>37.459886740987088</v>
+      </c>
+      <c r="AF2">
+        <v>29.785935651620434</v>
+      </c>
+      <c r="AG2">
+        <v>26.933021466054356</v>
+      </c>
+      <c r="AH2">
+        <v>25.293436928736469</v>
+      </c>
+      <c r="AI2">
+        <v>6.1049713951951503</v>
+      </c>
+      <c r="AJ2">
+        <v>23.096429826662643</v>
+      </c>
+      <c r="AK2">
+        <v>30.902598564124844</v>
+      </c>
+      <c r="AL2">
+        <v>43.365494340013015</v>
+      </c>
+      <c r="AM2">
         <v>18.728076225441782</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>26.223132047116678</v>
       </c>
-      <c r="F2">
-        <v>-16.442445094402416</v>
-      </c>
-      <c r="G2">
-        <v>23.649626639441124</v>
-      </c>
-      <c r="H2">
-        <v>25.578576441088615</v>
-      </c>
-      <c r="I2">
-        <v>21.27865420070475</v>
-      </c>
-      <c r="J2">
-        <v>28.540326787194488</v>
-      </c>
-      <c r="K2">
-        <v>40.571278436990724</v>
-      </c>
-      <c r="L2">
-        <v>31.912303205427918</v>
-      </c>
-      <c r="M2">
-        <v>22.104379744545895</v>
-      </c>
-      <c r="N2">
-        <v>-1.4575930475156156</v>
-      </c>
-      <c r="O2">
-        <v>13.093917988497651</v>
-      </c>
-      <c r="P2">
-        <v>19.760807767189647</v>
-      </c>
-      <c r="Q2">
-        <v>69.885395673533822</v>
-      </c>
-      <c r="R2">
-        <v>18.945101316784076</v>
-      </c>
-      <c r="S2">
-        <v>20.290426556988677</v>
-      </c>
-      <c r="T2">
-        <v>35.955688536009006</v>
-      </c>
-      <c r="U2">
-        <v>31.52532030033754</v>
-      </c>
-      <c r="V2">
-        <v>32.619857405588732</v>
-      </c>
-      <c r="W2">
-        <v>10.641465707457542</v>
-      </c>
-      <c r="X2">
-        <v>34.814450542142197</v>
-      </c>
-      <c r="Y2">
-        <v>30.187073301056188</v>
-      </c>
-      <c r="Z2">
-        <v>25.476750366390007</v>
-      </c>
-      <c r="AA2">
-        <v>35.074574493139551</v>
-      </c>
-      <c r="AB2">
-        <v>4.0397075816226788</v>
-      </c>
-      <c r="AC2">
-        <v>22.075731619735393</v>
-      </c>
-      <c r="AD2">
-        <v>25.029170033732441</v>
-      </c>
-      <c r="AE2">
-        <v>37.459886767289674</v>
-      </c>
-      <c r="AF2">
-        <v>29.78593568535814</v>
-      </c>
-      <c r="AG2">
-        <v>26.933021496780725</v>
-      </c>
-      <c r="AH2">
-        <v>25.293436964395937</v>
-      </c>
-      <c r="AI2">
-        <v>6.1049714378453928</v>
-      </c>
-      <c r="AJ2">
-        <v>23.096429871673706</v>
-      </c>
-      <c r="AK2">
-        <v>30.90259862570332</v>
-      </c>
-      <c r="AL2">
-        <v>43.365494391588413</v>
-      </c>
-      <c r="AM2">
-        <v>18.72807628473538</v>
-      </c>
-      <c r="AN2">
-        <v>26.223132091522416</v>
-      </c>
       <c r="AO2">
-        <v>37.36449085586267</v>
+        <v>37.36449080489254</v>
       </c>
       <c r="AP2">
-        <v>27.510432690323114</v>
+        <v>27.510432661584787</v>
       </c>
       <c r="AQ2">
-        <v>27.891313904217441</v>
+        <v>27.891313829365004</v>
       </c>
       <c r="AR2">
-        <v>30.966397648953148</v>
+        <v>30.966397636001943</v>
       </c>
       <c r="AS2">
-        <v>38.805619371145667</v>
+        <v>38.805619310320026</v>
       </c>
       <c r="AT2">
-        <v>31.471544483900061</v>
+        <v>31.471544448419024</v>
       </c>
       <c r="AU2">
-        <v>27.040950579800267</v>
+        <v>27.040950553006894</v>
       </c>
       <c r="AV2">
-        <v>22.982010107014958</v>
+        <v>22.982010030344782</v>
       </c>
       <c r="AW2">
-        <v>30.014492397945702</v>
+        <v>30.01449234207152</v>
       </c>
       <c r="AX2">
-        <v>37.105321783072071</v>
+        <v>37.105321716290234</v>
       </c>
       <c r="AY2">
-        <v>31.035162146564716</v>
+        <v>31.035162104043849</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>20.255146423108954</v>
+      </c>
+      <c r="C3">
+        <v>34.62394987007724</v>
+      </c>
+      <c r="D3">
+        <v>33.064241522523503</v>
+      </c>
+      <c r="E3">
+        <v>41.26242989265873</v>
+      </c>
+      <c r="F3">
+        <v>5.8832628713673785</v>
+      </c>
+      <c r="G3">
+        <v>27.964383117656183</v>
+      </c>
+      <c r="H3">
+        <v>26.385495532827065</v>
+      </c>
+      <c r="I3">
+        <v>26.396983824753534</v>
+      </c>
+      <c r="J3">
+        <v>34.659106792341333</v>
+      </c>
+      <c r="K3">
+        <v>0.73605643345217686</v>
+      </c>
+      <c r="L3">
+        <v>35.25266818636203</v>
+      </c>
+      <c r="M3">
+        <v>27.637871662469706</v>
+      </c>
+      <c r="N3">
         <v>-21.48109036200816</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>11.493826343276282</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>63.425164285901189</v>
+      </c>
+      <c r="Q3">
+        <v>24.248612541527336</v>
+      </c>
+      <c r="R3">
+        <v>20.104625531768875</v>
+      </c>
+      <c r="S3">
+        <v>15.703192923946744</v>
+      </c>
+      <c r="T3">
+        <v>18.776884245602275</v>
+      </c>
+      <c r="U3">
+        <v>28.661768737010789</v>
+      </c>
+      <c r="V3">
+        <v>33.821483074021899</v>
+      </c>
+      <c r="W3">
+        <v>20.986118126207145</v>
+      </c>
+      <c r="X3">
+        <v>11.820180132129678</v>
+      </c>
+      <c r="Y3">
+        <v>13.870261975452763</v>
+      </c>
+      <c r="Z3">
+        <v>26.00283157669719</v>
+      </c>
+      <c r="AA3">
+        <v>38.748124216225563</v>
+      </c>
+      <c r="AB3">
+        <v>26.609900611158423</v>
+      </c>
+      <c r="AC3">
+        <v>36.951448003847446</v>
+      </c>
+      <c r="AD3">
+        <v>43.76156549105329</v>
+      </c>
+      <c r="AE3">
+        <v>33.428361291569956</v>
+      </c>
+      <c r="AF3">
+        <v>33.425696500219146</v>
+      </c>
+      <c r="AG3">
+        <v>26.091102574511297</v>
+      </c>
+      <c r="AH3">
+        <v>31.147753672500926</v>
+      </c>
+      <c r="AI3">
+        <v>37.044779023404203</v>
+      </c>
+      <c r="AJ3">
+        <v>41.253876524921793</v>
+      </c>
+      <c r="AK3">
+        <v>35.493083380941812</v>
+      </c>
+      <c r="AL3">
+        <v>38.075309066545742</v>
+      </c>
+      <c r="AM3">
         <v>40.481075397895438</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>17.00445050643782</v>
       </c>
-      <c r="F3">
-        <v>5.883262899290628</v>
-      </c>
-      <c r="G3">
-        <v>27.964383133178927</v>
-      </c>
-      <c r="H3">
-        <v>26.385495584275986</v>
-      </c>
-      <c r="I3">
-        <v>26.396983852710605</v>
-      </c>
-      <c r="J3">
-        <v>34.659106823833099</v>
-      </c>
-      <c r="K3">
-        <v>0.73605646682881343</v>
-      </c>
-      <c r="L3">
-        <v>35.252668221028102</v>
-      </c>
-      <c r="M3">
-        <v>27.637970810649108</v>
-      </c>
-      <c r="N3">
-        <v>-21.481090311360845</v>
-      </c>
-      <c r="O3">
-        <v>11.493826371221871</v>
-      </c>
-      <c r="P3">
-        <v>63.425164324869115</v>
-      </c>
-      <c r="Q3">
-        <v>24.24861257611667</v>
-      </c>
-      <c r="R3">
-        <v>20.104625566301138</v>
-      </c>
-      <c r="S3">
-        <v>15.703192946050308</v>
-      </c>
-      <c r="T3">
-        <v>18.776884278281841</v>
-      </c>
-      <c r="U3">
-        <v>28.661768753695014</v>
-      </c>
-      <c r="V3">
-        <v>33.821483093381573</v>
-      </c>
-      <c r="W3">
-        <v>20.986118217969022</v>
-      </c>
-      <c r="X3">
-        <v>11.820180182464753</v>
-      </c>
-      <c r="Y3">
-        <v>13.870262004223804</v>
-      </c>
-      <c r="Z3">
-        <v>26.002831600651575</v>
-      </c>
-      <c r="AA3">
-        <v>38.748124264335786</v>
-      </c>
-      <c r="AB3">
-        <v>26.609900658730965</v>
-      </c>
-      <c r="AC3">
-        <v>36.951448060391527</v>
-      </c>
-      <c r="AD3">
-        <v>43.76156555858725</v>
-      </c>
-      <c r="AE3">
-        <v>33.428361290013243</v>
-      </c>
-      <c r="AF3">
-        <v>33.425696551751969</v>
-      </c>
-      <c r="AG3">
-        <v>26.091102635297716</v>
-      </c>
-      <c r="AH3">
-        <v>31.147753698744623</v>
-      </c>
-      <c r="AI3">
-        <v>37.044779078529359</v>
-      </c>
-      <c r="AJ3">
-        <v>41.253876587024592</v>
-      </c>
-      <c r="AK3">
-        <v>35.493083401829153</v>
-      </c>
-      <c r="AL3">
-        <v>38.075309111046067</v>
-      </c>
-      <c r="AM3">
-        <v>40.481075479264177</v>
-      </c>
-      <c r="AN3">
-        <v>17.004450556587244</v>
-      </c>
       <c r="AO3">
-        <v>17.636783436686557</v>
+        <v>17.63678335580363</v>
       </c>
       <c r="AP3">
-        <v>36.79647135177845</v>
+        <v>36.796471297090307</v>
       </c>
       <c r="AQ3">
-        <v>30.781500982342152</v>
+        <v>30.781500941369586</v>
       </c>
       <c r="AR3">
-        <v>37.325388188359625</v>
+        <v>37.325388153235622</v>
       </c>
       <c r="AS3">
-        <v>29.323249384656606</v>
+        <v>29.323249344483315</v>
       </c>
       <c r="AT3">
-        <v>25.292599542792203</v>
+        <v>25.292599482093891</v>
       </c>
       <c r="AU3">
-        <v>36.753456892175166</v>
+        <v>36.753456824852321</v>
       </c>
       <c r="AV3">
-        <v>33.037042792438854</v>
+        <v>33.03704274923075</v>
       </c>
       <c r="AW3">
-        <v>35.109287435403814</v>
+        <v>35.109287362069892</v>
       </c>
       <c r="AX3">
-        <v>63.860035719562831</v>
+        <v>63.860035671435782</v>
       </c>
       <c r="AY3">
-        <v>45.589355609722475</v>
+        <v>45.589355579273956</v>
       </c>
     </row>
   </sheetData>
